--- a/Befolkningstethet.xlsx
+++ b/Befolkningstethet.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/bfa6bab4499e8cf7/Dokumenter/DEV/MSB104_Ass1/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1" documentId="8_{A000F3AE-53ED-4629-B1BB-20DC7F1EDBFF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{C6EB18C7-F1E1-4C54-809D-44742F2B4A61}"/>
+  <xr:revisionPtr revIDLastSave="2" documentId="8_{A000F3AE-53ED-4629-B1BB-20DC7F1EDBFF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{967D8794-DFB3-43FF-BF2A-358E5628C31B}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="218" uniqueCount="98">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="218" uniqueCount="99">
   <si>
     <t>Population density by NUTS 3 region [demo_r_d3dens__custom_18863632]</t>
   </si>
@@ -316,6 +316,9 @@
   </si>
   <si>
     <t>BPK</t>
+  </si>
+  <si>
+    <t>nuts2</t>
   </si>
 </sst>
 </file>
@@ -338,27 +341,32 @@
       <b/>
       <sz val="9"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="9"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <b/>
       <sz val="9"/>
       <color indexed="9"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <b/>
       <sz val="11"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <u/>
       <sz val="9"/>
       <color indexed="12"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="7">
@@ -543,6 +551,10 @@
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -991,7 +1003,7 @@
       <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="B39" sqref="B39"/>
+      <selection pane="bottomRight" activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="11.4" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -1003,7 +1015,7 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" s="4" t="s">
-        <v>22</v>
+        <v>98</v>
       </c>
       <c r="B1" s="4" t="s">
         <v>23</v>
